--- a/data.xlsx
+++ b/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Supplier Site</t>
   </si>
@@ -81,7 +81,10 @@
     <t>Item Quantity</t>
   </si>
   <si>
-    <t>Order No. 65126</t>
+    <t>Additional Quantity</t>
+  </si>
+  <si>
+    <t>Order No. 65148</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1001</v>
@@ -499,32 +502,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100100421</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100100447</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
